--- a/Experiments/Measurements/Single Banner Horizontal/S path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Horizontal/S path/Transformed_Coordinates.xlsx
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>148.3818833419193</v>
+        <v>148.3818833419192</v>
       </c>
       <c r="H12" t="n">
-        <v>42.53556079674991</v>
+        <v>42.53556079674983</v>
       </c>
     </row>
     <row r="13">
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>164.9951518372318</v>
+        <v>164.9951518372317</v>
       </c>
       <c r="H13" t="n">
-        <v>52.81188096990561</v>
+        <v>52.81188096990553</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>49.52385729314533</v>
+        <v>49.52385729314499</v>
       </c>
       <c r="H14" t="n">
-        <v>50.66373824422776</v>
+        <v>50.66373824422747</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>62.80262449246469</v>
+        <v>62.80262449246437</v>
       </c>
       <c r="H15" t="n">
-        <v>56.62509897510372</v>
+        <v>56.62509897510339</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>80.78472329195831</v>
+        <v>80.78472329195795</v>
       </c>
       <c r="H16" t="n">
-        <v>50.94711911058433</v>
+        <v>50.94711911058407</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>63.243994532509</v>
+        <v>63.24399453250866</v>
       </c>
       <c r="H17" t="n">
-        <v>50.44310005356078</v>
+        <v>50.44310005356048</v>
       </c>
     </row>
     <row r="18">
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>214.3264022068395</v>
+        <v>214.3264022068396</v>
       </c>
       <c r="H18" t="n">
-        <v>61.26489149259445</v>
+        <v>61.26489149259461</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>210.4608065882999</v>
+        <v>210.4608065883</v>
       </c>
       <c r="H19" t="n">
-        <v>62.3854229975636</v>
+        <v>62.38542299756377</v>
       </c>
     </row>
     <row r="20">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>193.7474419574617</v>
+        <v>193.7474419574621</v>
       </c>
       <c r="H24" t="n">
-        <v>65.68531507434921</v>
+        <v>65.68531507434949</v>
       </c>
     </row>
     <row r="25">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>156.3104372467762</v>
+        <v>156.310437246776</v>
       </c>
       <c r="H29" t="n">
-        <v>47.81057660260666</v>
+        <v>47.8105766026065</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50.65500378550897</v>
+        <v>50.65500378550881</v>
       </c>
       <c r="H30" t="n">
-        <v>54.82262280883879</v>
+        <v>54.82262280883863</v>
       </c>
     </row>
     <row r="31">
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>54.11090810469141</v>
+        <v>54.11090810469118</v>
       </c>
       <c r="H32" t="n">
-        <v>65.57164653341992</v>
+        <v>65.57164653341967</v>
       </c>
     </row>
     <row r="33">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>141.1925457244921</v>
+        <v>141.1925457244918</v>
       </c>
       <c r="H34" t="n">
-        <v>50.01651982420251</v>
+        <v>50.01651982420232</v>
       </c>
     </row>
     <row r="35">
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>161.5557496956814</v>
+        <v>161.5557496956812</v>
       </c>
       <c r="H35" t="n">
-        <v>47.0564776291414</v>
+        <v>47.05647762914124</v>
       </c>
     </row>
     <row r="36">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>151.6235218497181</v>
+        <v>151.6235218497179</v>
       </c>
       <c r="H36" t="n">
-        <v>69.01497270541059</v>
+        <v>69.01497270541046</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>156.4642683180058</v>
+        <v>156.4642683180056</v>
       </c>
       <c r="H37" t="n">
-        <v>47.23981080479853</v>
+        <v>47.23981080479837</v>
       </c>
     </row>
     <row r="38">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>195.8345424959552</v>
+        <v>195.8345424959555</v>
       </c>
       <c r="H38" t="n">
-        <v>60.05201383183967</v>
+        <v>60.05201383183999</v>
       </c>
     </row>
     <row r="39">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>88.91454590465231</v>
+        <v>88.9145459046525</v>
       </c>
       <c r="H40" t="n">
-        <v>45.0707390034741</v>
+        <v>45.07073900347424</v>
       </c>
     </row>
     <row r="41">
@@ -1789,10 +1789,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>63.79368856547745</v>
+        <v>63.79368856547776</v>
       </c>
       <c r="H45" t="n">
-        <v>58.40278687386034</v>
+        <v>58.40278687386067</v>
       </c>
     </row>
     <row r="46">
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>75.33061758306498</v>
+        <v>75.33061758306516</v>
       </c>
       <c r="H46" t="n">
-        <v>47.93932250268944</v>
+        <v>47.93932250268958</v>
       </c>
     </row>
     <row r="47">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>74.66661883443899</v>
+        <v>74.66661883443936</v>
       </c>
       <c r="H47" t="n">
-        <v>45.33354888430908</v>
+        <v>45.33354888430935</v>
       </c>
     </row>
     <row r="48">
@@ -1879,10 +1879,10 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>69.74037810628565</v>
+        <v>69.74037810628548</v>
       </c>
       <c r="H48" t="n">
-        <v>66.68867947059876</v>
+        <v>66.68867947059861</v>
       </c>
     </row>
     <row r="49">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>120.4614501398868</v>
+        <v>120.4614501398866</v>
       </c>
       <c r="H50" t="n">
-        <v>47.24891647055826</v>
+        <v>47.24891647055811</v>
       </c>
     </row>
     <row r="51">
